--- a/기자재.xlsx
+++ b/기자재.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="13974" windowHeight="4350"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="13974" windowHeight="4350" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="First Materials" sheetId="1" r:id="rId1"/>
+    <sheet name="Second Materials" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,94 @@
   </si>
   <si>
     <t>필요 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리파이 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방열판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arduino Uno (R3) SMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 HDMI 젠더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리파이 쿨링 팬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9V battery holder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI to DVI 케이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZH-AT002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ada-67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thermal Printer paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 프린팅 외주 (필라멘트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9V 건전지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shopping.interpark.com/product/productInfo.do?prdNo=3694268299&amp;dispNo=016001&amp;NaPm=ct%3Djfewn4j4%7Cci%3D4d309305e4fcaad53cab86b6337b162b0dbce487%7Ctr%3Dslsl%7Csn%3D3%7Chk%3D7751dcb1902eaadd3364f616444e4890081d59b7</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1342926</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1377518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1223423</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/18069</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1361327</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1192615</t>
+  </si>
+  <si>
+    <t>http://engle-land.com/shop/goods/goods_view.php?goodsno=518370&amp;inflow=naver&amp;NaPm=ct%3Djfewxssg%7Cci%3D0783eb2f4e1ce4b834d420105c0e2ffe6a7aae82%7Ctr%3Dslsl%7Csn%3D464874%7Chk%3Dd25aae5fc185e68663af3891ea37952eb8725296</t>
+  </si>
+  <si>
+    <t>http://m.11st.co.kr/MW/Product/productBasicInfo.tmall?prdNo=1928017646&amp;NaPm=ct=jfe1jp5c|ci=dc412df2b758d079f8c1024044bd7337e8bdbfff|tr=slsl|sn=17703|hk=5392673e04f2c1af4ee8b7ee00d6db22e14ef1d3&amp;utm_term=&amp;utm_campaign=%B3%D7%C0%CC%B9%F6m_%B0%A1%B0%DD%BA%F1%B1%B3+%B1%E2%BA%BB&amp;utm_source=%B3%D7%C0%CC%B9%F6_M_PCS&amp;utm_medium=%B0%A1%B0%DD%BA%F1%B1%B3</t>
+  </si>
+  <si>
+    <t>3-Port USB 3.0 Hub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +291,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -221,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +360,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
@@ -613,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>$D3*$E3+$F3</f>
+        <f t="shared" ref="G3:G13" si="0">$D3*$E3+$F3</f>
         <v>75000</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -637,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f>$D4*$E4+$F4</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -659,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f>$D5*$E5+$F5</f>
+        <f t="shared" si="0"/>
         <v>95700</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -683,7 +828,7 @@
         <v>3000</v>
       </c>
       <c r="G6">
-        <f>$D6*$E6+$F6</f>
+        <f t="shared" si="0"/>
         <v>65700</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -705,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>$D7*$E7+$F7</f>
+        <f t="shared" si="0"/>
         <v>54000</v>
       </c>
       <c r="H7" t="s">
@@ -727,7 +872,7 @@
         <v>2500</v>
       </c>
       <c r="G8" s="5">
-        <f>$D8*$E8+$F8</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -751,7 +896,7 @@
         <v>2500</v>
       </c>
       <c r="G9" s="5">
-        <f>$D9*$E9+$F9</f>
+        <f t="shared" si="0"/>
         <v>6800</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -773,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <f>$D10*$E10+$F10</f>
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -795,7 +940,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="5">
-        <f>$D11*$E11+$F11</f>
+        <f t="shared" si="0"/>
         <v>3990</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -815,7 +960,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5">
-        <f>$D12*$E12+$F12</f>
+        <f t="shared" si="0"/>
         <v>1760</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -837,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>$D13*$E13+$F13</f>
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
     </row>
@@ -876,14 +1021,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.046875" customWidth="1"/>
+    <col min="2" max="2" width="23.546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.34765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="13">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>7437</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G13" si="0">$D3*$E3+$F3</f>
+        <v>50437</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>22000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>5200</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>2270</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>2270</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17">
+        <v>4800</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>480</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>5280</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1550</v>
+      </c>
+      <c r="E11" s="16">
+        <v>20</v>
+      </c>
+      <c r="F11" s="17">
+        <v>14900</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>45900</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17">
+        <v>1110</v>
+      </c>
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>4720</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>21920</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>11900</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>33820</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="F14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="23">
+        <f>SUM(G3:G13)</f>
+        <v>193527</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="F15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="22">
+        <f>G14-(G9+SUM(G11:G13))</f>
+        <v>103807</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="H3:H4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/기자재.xlsx
+++ b/기자재.xlsx
@@ -327,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,44 +361,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,20 +1064,20 @@
         <v>33</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="13">
+      <c r="D3" s="20">
         <v>43000</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20">
         <v>7437</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="22">
         <f t="shared" ref="G3:G13" si="0">$D3*$E3+$F3</f>
         <v>50437</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="23" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1083,11 +1086,11 @@
         <v>34</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B5" s="1" t="s">
@@ -1100,8 +1103,8 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12">
+      <c r="F5" s="20"/>
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>44000</v>
       </c>
@@ -1120,8 +1123,8 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12">
+      <c r="F6" s="20"/>
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
@@ -1142,8 +1145,8 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12">
+      <c r="F7" s="20"/>
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>2270</v>
       </c>
@@ -1164,8 +1167,8 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12">
+      <c r="F8" s="20"/>
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
@@ -1174,26 +1177,26 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>4800</v>
       </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
         <v>480</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>5280</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1203,95 +1206,95 @@
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>1550</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>20</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>14900</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>45900</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
+      <c r="C12" s="24"/>
+      <c r="D12" s="11">
         <v>1110</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="24">
         <v>2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="11">
         <v>2500</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>4720</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13">
         <v>21920</v>
       </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17">
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
         <v>11900</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <f t="shared" si="0"/>
         <v>33820</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="19">
         <f>SUM(G3:G13)</f>
         <v>193527</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="22">
-        <f>G14-(G9+SUM(G11:G13))</f>
-        <v>103807</v>
+      <c r="G15" s="18">
+        <f>G14-(G9+G11+G13)</f>
+        <v>108527</v>
       </c>
     </row>
   </sheetData>
